--- a/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 2.xlsx
+++ b/Kiểm tra trắc nghiệm/Kiểm tra trắc nghiệm/bin/Debug/data/Chủ Nghĩa Xã Hội Khoa Học/Chương 2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\kiemTraTracNghiem\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Bai Tap\Ung_Dung_On_Tap_Ly_Thuyet\Kiểm tra trắc nghiệm\Kiểm tra trắc nghiệm\bin\Debug\data\Chủ Nghĩa Xã Hội Khoa Học\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{262CAABD-7076-4FFE-B747-6EDB7A66BF0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0341DF08-3EB7-428C-BB67-C80428A235C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="187">
   <si>
     <t>Câu Hỏi</t>
   </si>
@@ -43,13 +43,556 @@
   </si>
   <si>
     <t>Đáp án đúng</t>
+  </si>
+  <si>
+    <t>Xét về phương thức lao động, phương thức sản xuất thì đâu là đặc trưng cơ bản khi nói về giai cấp công nhân ?</t>
+  </si>
+  <si>
+    <t>Là giai cấp bị áp bức bóc lột.</t>
+  </si>
+  <si>
+    <t>Là giai cấp có số lượng đông trong dân cư</t>
+  </si>
+  <si>
+    <t>Giai cấp lãnh đạo</t>
+  </si>
+  <si>
+    <t>Là giai cấp trực tiếp, gián tiếp vận hành các công cụ sản xuất có tính chất công nghiệp ngày càng hiện đại</t>
+  </si>
+  <si>
+    <t>Kiểu nhà nước nào được V.I.Lênin gọi là nhà nước "nửa nhà nước"?</t>
+  </si>
+  <si>
+    <t>Nhà nước chủ nô</t>
+  </si>
+  <si>
+    <t>Nhà nước phong kiến</t>
+  </si>
+  <si>
+    <t>Nhà nước tư sản</t>
+  </si>
+  <si>
+    <t>Nhà nước xã hội chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Phân phối theo lao động là:</t>
+  </si>
+  <si>
+    <t>Lao động ngang nhau, trả công bằng nhau.</t>
+  </si>
+  <si>
+    <t>Phân phối theo sức lao động.</t>
+  </si>
+  <si>
+    <t>Trả công lao động theo năng suất lao động.</t>
+  </si>
+  <si>
+    <t>Phân phối theo số lượng lao động và chất lượng lao động đã cống hiến cho xã hội.</t>
+  </si>
+  <si>
+    <t>Cách mạng xã hội chủ nghĩa là gì?</t>
+  </si>
+  <si>
+    <t>Cách mạng toàn diện trên mọi lĩnh vực</t>
+  </si>
+  <si>
+    <t>Tổng khởi nghĩa giành chính quyền</t>
+  </si>
+  <si>
+    <t>Cách mang lật đổ chế độ phong kiến</t>
+  </si>
+  <si>
+    <t>Tiến trình bao gồm giai đoạn thiết lập chính quyền vô sản và xây dưng xã hội mới</t>
+  </si>
+  <si>
+    <t>Mục tiêu của cách mạng xã hội chủ nghĩa là gì?</t>
+  </si>
+  <si>
+    <t>Trong nền kinh tế theo định hướng XHCN, thành phần kinh tế nào đóng vai trò chủ đạo?</t>
+  </si>
+  <si>
+    <t>Tiêu chí cơ bản để đánh giá hiệu quả xây dựng quan hệ sản xuất xã hội chủ nghĩa là:</t>
+  </si>
+  <si>
+    <t>Giải phóng xã hội và con người</t>
+  </si>
+  <si>
+    <t>Tạo điều kiện cho xã hội phát triển</t>
+  </si>
+  <si>
+    <t>Giải phóng giai cấp</t>
+  </si>
+  <si>
+    <t>Giành độc lập dân tộc</t>
+  </si>
+  <si>
+    <t>Kinh tế Nhà nước và kinh tế tập thể (nòng cốt là hợp tác xã)</t>
+  </si>
+  <si>
+    <t>Kinh tế quốc doanh</t>
+  </si>
+  <si>
+    <t>Kinh tế Nhà nước</t>
+  </si>
+  <si>
+    <t>Kinh tế tập thể</t>
+  </si>
+  <si>
+    <t>Thúc đẩy lực lượng sản xuất phát triển, cải thiện đời sống</t>
+  </si>
+  <si>
+    <t>Thúc đẩy lực lượng sản xuất phát triển, thực hiện công bằng xã hội</t>
+  </si>
+  <si>
+    <t>Thúc đẩy lực lượng sản xuất phát triển và củng cố quan hệ sản xuất.</t>
+  </si>
+  <si>
+    <t>Thúc đẩy lực lượng sản xuất phát triển, cải thiện đời sống, thực hiện công bằng xã hội.</t>
+  </si>
+  <si>
+    <t>Đại hội Đảng Cộng sản Việt Nam lần thứ IX xác định mô hình kinh tế khái quát trong thời kỳ quá độ ở nước ta là:</t>
+  </si>
+  <si>
+    <t>Kinh tế nhiều thành phần TBCN</t>
+  </si>
+  <si>
+    <t>Kinh tế kế hoạch hóa định hướng XHCN</t>
+  </si>
+  <si>
+    <t>Kinh tế thị trường theo định hướng XHCN</t>
+  </si>
+  <si>
+    <t>Kinh tế nhiều thành phần có sự quản lý của nhà nước theo định hướng XHCN</t>
+  </si>
+  <si>
+    <t>Sứ mệnh lịch sử của giái cấp công nhân là gì?</t>
+  </si>
+  <si>
+    <t>Đặc điểm Chính trị xã hội của giai cấp công nhân là gì?</t>
+  </si>
+  <si>
+    <t>Thủ tiêu chế độ tư bản, xây dựng xã hội mới tiến bộ hơn</t>
+  </si>
+  <si>
+    <t>Giành chính quyền về tay nhân dân</t>
+  </si>
+  <si>
+    <t>Lãnh đạo phong trào cách mạng</t>
+  </si>
+  <si>
+    <t>Đấu tranh giải phóng loài người</t>
+  </si>
+  <si>
+    <t>Bị bóc lột nặng nề về kinh tế</t>
+  </si>
+  <si>
+    <t>Lực lượng lãnh đạo sáng suốt</t>
+  </si>
+  <si>
+    <t>Có trình độ khoa học kỹ thuật cao</t>
+  </si>
+  <si>
+    <t>Có tinh thần cách mạng triệt để nhất, ý thức tổ chức kỷ luật cao và tinh thần quốc tế</t>
+  </si>
+  <si>
+    <t>Cơ sở của liên minh công nông là gì?</t>
+  </si>
+  <si>
+    <t>Nguyên nhân sâu xa của cách mạng xã hội chủ nghĩa là gì?</t>
+  </si>
+  <si>
+    <t>Họ cùng bị áp bức bóc lột</t>
+  </si>
+  <si>
+    <t>Lợi ích căn bản của hai giai cấp này thống nhất với nhau</t>
+  </si>
+  <si>
+    <t>Cùng chung kẻ thù là đói nghèo</t>
+  </si>
+  <si>
+    <t>Bản chất giai cấp giống nhau</t>
+  </si>
+  <si>
+    <t>Bản chất xấu xa của chủ nghĩa tư bản</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa giai cấp tầng lớp trong xã hội</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa cái cũ lỗi thời và cái mới tiến bộ</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn không thể điều hòa được giữa lực lượng sản xuất và quan hệ sản xuất tư bản</t>
+  </si>
+  <si>
+    <t>Nội dung của liên minh công nông và các tầng lớp lao động là gì?</t>
+  </si>
+  <si>
+    <t>Nguyên tắc cơ bản của liên minh công nông là gì?</t>
+  </si>
+  <si>
+    <t>Liên minh về chính trị</t>
+  </si>
+  <si>
+    <t>Liên minh trên mọi lĩnh vực</t>
+  </si>
+  <si>
+    <t>Liên minh về giai cấp</t>
+  </si>
+  <si>
+    <t>Liên minh về văn hóa – xã hội</t>
+  </si>
+  <si>
+    <t>Đảm bảo sự lãnh đạo của Đảng cộng sản, tự nguyện, hài hòa lợi ích</t>
+  </si>
+  <si>
+    <t>Trên cơ sơ phục tùng sự lãnh đạo của giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Đảm bảo lợi ích cho nông dân</t>
+  </si>
+  <si>
+    <t>Lôi kéo được tầng lớp trí thức tham gia liên minh</t>
+  </si>
+  <si>
+    <t>Hình thái kinh tế xã hội cộng sản chủ nghĩa bao gồm những giai đoạn nào?</t>
+  </si>
+  <si>
+    <t>Nhận định nào sau đây về giai đoạn cộng sản chủ nghĩa là sai?</t>
+  </si>
+  <si>
+    <t>Thời kỳ quá độ, chủ nghĩa xã hội và chủ nghĩa cộng sản</t>
+  </si>
+  <si>
+    <t>Thời kỳ quá độ và chủ nghĩa xã hội</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội và chủ nghĩa cộng sản</t>
+  </si>
+  <si>
+    <t>Thời kỳ sơ khai và thời kỳ chín muồi</t>
+  </si>
+  <si>
+    <t>Đến giai đoạn cộng sản chủ nghĩa mâu thuẫn đối kháng không còn</t>
+  </si>
+  <si>
+    <t>Đến giai đoạn cộng sản chủ nghĩa khối liên minh công nông sẽ bị phá vỡ</t>
+  </si>
+  <si>
+    <t>Đến giai đoạn cộng sản chủ nghĩa nhà nước đã tiêu vong</t>
+  </si>
+  <si>
+    <t>Đến giai đoạn công sản chủ nghĩa của cải xã hội rất dồi dào</t>
+  </si>
+  <si>
+    <t>Đặc điểm nổi bật của thời kỳ quá độ từ chủ nghĩa tư bản lên chủ nghĩa xã hội là gì?</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn và đấu tranh giữa các nhân tố mới và cũ trên tất cả các lĩnh vực</t>
+  </si>
+  <si>
+    <t>Vẫn còn phân chia giai cấp</t>
+  </si>
+  <si>
+    <t>Vẫn còn áp bức, bóc lột</t>
+  </si>
+  <si>
+    <t>Vẫn còn phân hóa giàu nghèo</t>
+  </si>
+  <si>
+    <t>Cơ sở khách quan của nền kinh tế khách quan nhiều thành phần là gì?</t>
+  </si>
+  <si>
+    <t>Nguyên tắc phân phối của chủ nghĩa xã hội là gì?</t>
+  </si>
+  <si>
+    <t>Các thành phần kinh tế được nhà nước bảo hộ</t>
+  </si>
+  <si>
+    <t>Sự tồn tại nhiều loại hình sở hữu</t>
+  </si>
+  <si>
+    <t>Sự phát triển không đồng đều</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa xã hội chưa thành công</t>
+  </si>
+  <si>
+    <t>Phân phối bình quân</t>
+  </si>
+  <si>
+    <t>Phân phối theo thành tích công tác</t>
+  </si>
+  <si>
+    <t>Phân phối theo lao động</t>
+  </si>
+  <si>
+    <t>Phân phối theo mức độ sở hữu</t>
+  </si>
+  <si>
+    <t>Cách mạng xã hội chủ nghĩa do giai cấp, tầng lớp nào lãnh đạo?</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân, giai cấp nông dân.</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân, giai cấp nông dân và tầng lớp trí thức.</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân, giai cấp tư sản, giai cấp nông dân</t>
+  </si>
+  <si>
+    <t>Nguyên nhân sâu xa của cách mạng xã hội chủ nghĩa là?</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa lực lượng sản xuất và quan hệ sản xuất</t>
+  </si>
+  <si>
+    <t>Do sự phát triển của lực lượng sản xuất</t>
+  </si>
+  <si>
+    <t>Do sự phát triển của giai cấp công nhân</t>
+  </si>
+  <si>
+    <t>Giai cấp tư sản đó trở thành giai cấp phản động</t>
+  </si>
+  <si>
+    <t>Quá độ lên chủ nghĩa xã hội bỏ qua chế độ tư bản chủ nghĩa là bỏ qua yếu tố nào của chủ nghĩa tư bản.</t>
+  </si>
+  <si>
+    <t>Bỏ qua nhà nước của giai cấp tư sản</t>
+  </si>
+  <si>
+    <t>Bỏ qua cơ sở kinh tế của chủ nghĩa tư bản.</t>
+  </si>
+  <si>
+    <t>Bỏ qua chế độ áp bức bóc lột của giai cấp tư sản.</t>
+  </si>
+  <si>
+    <t>Bỏ qua việc xác lập vị trí thống trị của quan hệ sản xuất và kiến trúc thượng tầng tư tưởng tư bản chủ nghĩa.</t>
+  </si>
+  <si>
+    <t>Điền từ còn thiếu vào chỗ trống: Đảng Cộng sản Việt Nam ra đời là sản phẩm của sự kết hợp chủ nghĩa Mác – Lênin, với phong trào công nhân và ... ở nước ta vào những năm cuối thập kỷ của thế kỷ XX.</t>
+  </si>
+  <si>
+    <t>Chủ nghĩa yêu nước</t>
+  </si>
+  <si>
+    <t>Truyền thống yêu nước</t>
+  </si>
+  <si>
+    <t>Phong trào yêu nước</t>
+  </si>
+  <si>
+    <t>Truyền thống dân tộc</t>
+  </si>
+  <si>
+    <t>Quan hệ gia đình bao gồm?</t>
+  </si>
+  <si>
+    <t>Quan hệ hôn nhân.</t>
+  </si>
+  <si>
+    <t>Quan hệ hôn nhân, quan hệ huyết thống và nuôi dưỡng</t>
+  </si>
+  <si>
+    <t>Quan hệ quần tụ trong một không gian sinh tồn.</t>
+  </si>
+  <si>
+    <t>Quan hệ nuôi dưỡng.</t>
+  </si>
+  <si>
+    <t>Tại sao việc phát triển lực lượng sản xuất, tiến hành CNH – HĐH là nhiệm vụ trung tâm trong suốt thời kỳ quá độ lên CNXH ở nước ta hiện nay?</t>
+  </si>
+  <si>
+    <t>Đưa Việt Nam trở thành một nước công nghiệp hiện đại</t>
+  </si>
+  <si>
+    <t>Nâng Việt Nam lên ngang tầm với các nước trên thế giới</t>
+  </si>
+  <si>
+    <t>Đoạn tuyệt với nền kinh tế tiểu nông lạc hậu</t>
+  </si>
+  <si>
+    <t>Xây dựng cơ sở vật chất – kỹ thuật cho CNXH, phát triển kinh tế nâng cao đời sống vật chất và tinh thần cho nhân dân.</t>
+  </si>
+  <si>
+    <t>Có mấy hình thức quá độ lên Chủ nghĩa xã hội?</t>
+  </si>
+  <si>
+    <t>Nội dung cơ bản của cách mạng XHCN trên lĩnh vực chính trị?</t>
+  </si>
+  <si>
+    <t>Xây dựng nền dân chủ chân chính</t>
+  </si>
+  <si>
+    <t>Thiết lập nhà nước của GCCN</t>
+  </si>
+  <si>
+    <t>Đưa quần chúng nhân dân lao động từ địa vị nô lệ, bị áp bức, bóc lột trở thành những người làm chủ xã hội</t>
+  </si>
+  <si>
+    <t>Xác lập quyền lãnh đạo của Đảng Cộng sản đối với toàn xã hội, thông qua hoạt động của nhà nước XHCN.</t>
+  </si>
+  <si>
+    <t>Động lực của cách mạng XHCN là:</t>
+  </si>
+  <si>
+    <t>Giai cấp nông dân</t>
+  </si>
+  <si>
+    <t>Lực lượng cách mạng trong và ngoài nước</t>
+  </si>
+  <si>
+    <t>GCCN, GC nông dân và tầng lớp trí thức</t>
+  </si>
+  <si>
+    <t>Tầng lớp trí thức</t>
+  </si>
+  <si>
+    <t>Mục tiêu giai đoạn hai của cách mạng XHCN là:</t>
+  </si>
+  <si>
+    <t>Triệt tiêu các cơ sở của chế độ cũ</t>
+  </si>
+  <si>
+    <t>Thực hiện liên minh giai cấp</t>
+  </si>
+  <si>
+    <t>Xóa bỏ chế độ người bóc lột người nhằm đưa lại đời sống ấm no cho toàn dân</t>
+  </si>
+  <si>
+    <t>Xây dựng tổ chức Đảng và nhà nước vững mạnh</t>
+  </si>
+  <si>
+    <t>Mục tiêu giai đoạn đầu của cuộc cách mạng XHCN là:</t>
+  </si>
+  <si>
+    <t>Xây dựng nền dân chủ</t>
+  </si>
+  <si>
+    <t>Xóa bỏ chế độ người bóc lột người</t>
+  </si>
+  <si>
+    <t>Tập trung quyền lực về tay giai cấp cách mạng</t>
+  </si>
+  <si>
+    <t>Giành lấy chính quyền về tay GCCN và nhân dân lao động</t>
+  </si>
+  <si>
+    <t>Xét đến cùng, thực chất của cách mạng XHCN là:</t>
+  </si>
+  <si>
+    <t>Cuộc cách mạng chính trị</t>
+  </si>
+  <si>
+    <t>Cuộc cách mạng có tính chất kinh tế</t>
+  </si>
+  <si>
+    <t>Cuộc cách mạng văn hóa tư tưởng</t>
+  </si>
+  <si>
+    <t>Cuộc cách mạng khoa học công nghệ</t>
+  </si>
+  <si>
+    <t>Điểm khác biệt về cơ bản của cuộc cách mạng vô sản so với các cuộc cách mạng trước đó trong lịch sử là:</t>
+  </si>
+  <si>
+    <t>Thủ tiêu sự thống trị của giai cấp thống trị phản động</t>
+  </si>
+  <si>
+    <t>Thủ tiêu sở hữu tư nhân nói chung</t>
+  </si>
+  <si>
+    <t>Thủ tiêu chế độ tư hữu về tư liệu sản xuất</t>
+  </si>
+  <si>
+    <t>Thủ tiêu nhà nước tư bản</t>
+  </si>
+  <si>
+    <t>Cách mạng XHCN thắng lợi đầu tiên ở đâu?</t>
+  </si>
+  <si>
+    <t>Pháp</t>
+  </si>
+  <si>
+    <t>Việt Nam</t>
+  </si>
+  <si>
+    <t>Nga</t>
+  </si>
+  <si>
+    <t>Trung Quốc</t>
+  </si>
+  <si>
+    <t>Mục tiêu cuối cùng của cách mạng XHCN là gì?</t>
+  </si>
+  <si>
+    <t>Xóa bỏ chế độ tư hữu</t>
+  </si>
+  <si>
+    <t>Giải phóng con người, giải phóng xã hội</t>
+  </si>
+  <si>
+    <t>Giành chính quyền về tay GCCN</t>
+  </si>
+  <si>
+    <t>Xóa bỏ chế độ TBCN</t>
+  </si>
+  <si>
+    <t>Cách mạng XHCN do giai cấp nào lãnh đạo?</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân, nhân dân lao động</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân tầng lớp trí thức</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân, tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Điều kiện chủ quan có vai trò quyết định nhất của cuộc cách mạng XHCN là:</t>
+  </si>
+  <si>
+    <t>Mâu thuẫn giữa lực lượng sản xuất và quan hệ sản xuất tư bản chủ nghĩa</t>
+  </si>
+  <si>
+    <t>Mâu thuần giữa Giai cấp công nhân và Tiểu tư sản</t>
+  </si>
+  <si>
+    <t>Giai cấp công nhân liên minh được với GC nông dân</t>
+  </si>
+  <si>
+    <t>Sự trưởng thành của Giai cấp công nhân, đặc biệt khi nó đã có đảng tiên phong lãnh đạo</t>
+  </si>
+  <si>
+    <t>Tiến trình cách mạng XHCN có mấy giai đoạn?</t>
+  </si>
+  <si>
+    <t>Điền từ vào chỗ trống: "Cách mạng XHCN là quá trình ..... toàn diện trên tất cả các lĩnh vực của đời sống xã hội từ kinh tế, chính trị, văn hóa, tư tưởng v.v... Để xây dựng thành công CNXH và cuối cùng là chủ nghĩa cộng sản.</t>
+  </si>
+  <si>
+    <t>Cải biến</t>
+  </si>
+  <si>
+    <t>Xây dựng</t>
+  </si>
+  <si>
+    <t>Hoàn thiện</t>
+  </si>
+  <si>
+    <t>Cải cách</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -71,6 +614,25 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FFFF0000"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -99,7 +661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -111,8 +673,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Bình thường" xfId="0" builtinId="0"/>
@@ -393,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F120"/>
+  <dimension ref="A1:F39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40:XFD499"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
@@ -428,59 +1002,764 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="6"/>
-      <c r="C22" s="6"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="6"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="6"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="6"/>
-      <c r="E51" s="6"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="6"/>
-      <c r="C52" s="6"/>
-      <c r="D52" s="6"/>
-      <c r="E52" s="6"/>
-    </row>
-    <row r="62" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B62" s="6"/>
-      <c r="C62" s="6"/>
-      <c r="D62" s="6"/>
-      <c r="E62" s="6"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B69" s="5"/>
-      <c r="C69" s="5"/>
-    </row>
-    <row r="87" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D87" s="5"/>
-    </row>
-    <row r="92" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B92" s="6"/>
-      <c r="C92" s="6"/>
-      <c r="E92" s="6"/>
-    </row>
-    <row r="117" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C117" s="5"/>
-    </row>
-    <row r="119" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B119" s="6"/>
-      <c r="C119" s="6"/>
-      <c r="D119" s="6"/>
-      <c r="E119" s="6"/>
-    </row>
-    <row r="120" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B120" s="6"/>
-      <c r="C120" s="6"/>
-      <c r="D120" s="6"/>
-      <c r="E120" s="6"/>
+      <c r="A2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="F8" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F9" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C11" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F11" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="C12" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="F12" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="F14" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B15" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B16" s="8" t="s">
+        <v>78</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>82</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>84</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="C18" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F19" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>97</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E21" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F21" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="B22" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="F22" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A23" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="E24" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A25" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F25" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>130</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A27" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="B27" s="10">
+        <v>2</v>
+      </c>
+      <c r="C27" s="7">
+        <v>3</v>
+      </c>
+      <c r="D27" s="7">
+        <v>4</v>
+      </c>
+      <c r="E27" s="7">
+        <v>5</v>
+      </c>
+      <c r="F27" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="D28" s="8" t="s">
+        <v>135</v>
+      </c>
+      <c r="E28" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="F28" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A29" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="E29" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="F29" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A30" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="F30" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>151</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A32" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>154</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E32" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="F32" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A33" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>160</v>
+      </c>
+      <c r="E33" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="F33" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A34" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="E34" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F34" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A35" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>169</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="F35" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A36" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="E36" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="F36" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A37" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>180</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="F37" s="4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A38" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="B38" s="7">
+        <v>1</v>
+      </c>
+      <c r="C38" s="10">
+        <v>2</v>
+      </c>
+      <c r="D38" s="7">
+        <v>3</v>
+      </c>
+      <c r="E38" s="7">
+        <v>4</v>
+      </c>
+      <c r="F38" s="4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A39" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="B39" s="8" t="s">
+        <v>183</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="F39" s="4">
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
